--- a/Versuch6/datasets/energieerhaltung.xlsx
+++ b/Versuch6/datasets/energieerhaltung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michele Calvanese\Uni\Grundpraktikum\Versuch6\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FA663249-5FE9-4304-A49D-838D281D4550}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0762EABF-13DC-4341-B359-EE6DD0FF23EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22932" windowHeight="5616" xr2:uid="{8EE7B9F7-4AB2-4BEB-933B-588A75DEFC85}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>x1</t>
   </si>
@@ -43,6 +43,36 @@
   </si>
   <si>
     <t>x_err</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>a_err</t>
+  </si>
+  <si>
+    <t>v1_corr</t>
+  </si>
+  <si>
+    <t>v2_corr</t>
+  </si>
+  <si>
+    <t>v1_err</t>
+  </si>
+  <si>
+    <t>v2_err</t>
+  </si>
+  <si>
+    <t>a_corr</t>
+  </si>
+  <si>
+    <t>a_avg</t>
+  </si>
+  <si>
+    <t>a_corr_avg</t>
+  </si>
+  <si>
+    <t>a_err_avg</t>
   </si>
 </sst>
 </file>
@@ -394,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087693DB-CD84-4C88-B672-B7F182993AF2}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,10 +449,34 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80</v>
       </c>
@@ -439,16 +493,48 @@
         <v>46.5</v>
       </c>
       <c r="F2">
+        <f>E2*0.985</f>
+        <v>45.802500000000002</v>
+      </c>
+      <c r="G2">
+        <f>SQRT(0.1^2+(E2*3*10^(-5))^2+(E2*0.005)^2)</f>
+        <v>0.25309720667166602</v>
+      </c>
+      <c r="H2">
         <v>60.9</v>
       </c>
+      <c r="I2">
+        <f>H2*0.985</f>
+        <v>59.986499999999999</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J9" si="0">SQRT(0.1^2+(H2*3*10^(-5))^2+(H2*0.005)^2)</f>
+        <v>0.32050520733523191</v>
+      </c>
+      <c r="L2">
+        <f>0.5*(E2^2-H2^2)/(A2-B2)</f>
+        <v>15.4656</v>
+      </c>
+      <c r="M2">
+        <f>0.5*(F2^2-I2^2)/(A2-B2)</f>
+        <v>15.00511176</v>
+      </c>
+      <c r="N2">
+        <f>SQRT(4/(A2+B2)^2*((E2*G2)^2+(H2*J2)^2)+(E2^2+H2^2)^2/(A2+B2)^4*(C2^2+C2^2))</f>
+        <v>0.23660377262272053</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(L2:L9)</f>
+        <v>15.593887500000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2</f>
         <v>80</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:C9" si="0">B2</f>
+        <f t="shared" ref="B3:C9" si="1">B2</f>
         <v>130</v>
       </c>
       <c r="C3">
@@ -462,20 +548,48 @@
         <v>41.3</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:F9" si="2">E3*0.985</f>
+        <v>40.680499999999995</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="3">SQRT(0.1^2+(E3*3*10^(-5))^2+(E3*0.005)^2)</f>
+        <v>0.22944233506700543</v>
+      </c>
+      <c r="H3">
         <v>57.1</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="4">H3*0.985</f>
+        <v>56.243499999999997</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0.30251146154980646</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="5">0.5*(E3^2-H3^2)/(A3-B3)</f>
+        <v>15.547200000000005</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="6">0.5*(F3^2-I3^2)/(A3-B3)</f>
+        <v>15.084282120000003</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N9" si="7">SQRT(4/(A3+B3)^2*((E3*G3)^2+(H3*J3)^2)+(E3^2+H3^2)^2/(A3+B3)^4*(C3^2+C3^2))</f>
+        <v>0.20383367243236047</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A9" si="1">A3</f>
+        <f t="shared" ref="A4:A9" si="8">A3</f>
         <v>80</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="D4">
@@ -485,20 +599,51 @@
         <v>35.200000000000003</v>
       </c>
       <c r="F4">
+        <f t="shared" si="2"/>
+        <v>34.672000000000004</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0.20242804928171396</v>
+      </c>
+      <c r="H4">
         <v>52.9</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>52.106499999999997</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.2827768883218712</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>15.593699999999997</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="6"/>
+        <v>15.129397582499996</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="7"/>
+        <v>0.17056543329141477</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="D5">
@@ -508,20 +653,52 @@
         <v>27.9</v>
       </c>
       <c r="F5">
+        <f t="shared" si="2"/>
+        <v>27.481499999999997</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0.17164192544072673</v>
+      </c>
+      <c r="H5">
         <v>48.5</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>47.772500000000001</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.26231348997907067</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>15.738400000000002</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>15.269789140000002</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="7"/>
+        <v>0.13885436110471336</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(M2:M9)</f>
+        <v>15.129579499687498</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="D6">
@@ -531,20 +708,48 @@
         <v>17.600000000000001</v>
       </c>
       <c r="F6">
+        <f t="shared" si="2"/>
+        <v>17.336000000000002</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0.13320765287324901</v>
+      </c>
+      <c r="H6">
         <v>43.4</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>42.748999999999995</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.23893659243405979</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>15.738</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>15.269401049999994</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="7"/>
+        <v>0.10718659608360366</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="D7">
@@ -554,20 +759,51 @@
         <v>44.8</v>
       </c>
       <c r="F7">
+        <f t="shared" si="2"/>
+        <v>44.128</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0.24531165144770437</v>
+      </c>
+      <c r="H7">
         <v>59.5</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>58.607500000000002</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.31386212932591917</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>15.332100000000002</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>14.875586722500005</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="7"/>
+        <v>0.22471967454455782</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="D8">
@@ -577,20 +813,52 @@
         <v>32.799999999999997</v>
       </c>
       <c r="F8">
+        <f t="shared" si="2"/>
+        <v>32.308</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.192085835646463</v>
+      </c>
+      <c r="H8">
         <v>51.5</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>50.727499999999999</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.27624017996120692</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>15.764100000000001</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>15.294723922499999</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>0.15978446299519958</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(N2:N9)</f>
+        <v>0.17786020304452849</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="D9">
@@ -600,7 +868,35 @@
         <v>37.299999999999997</v>
       </c>
       <c r="F9">
+        <f t="shared" si="2"/>
+        <v>36.740499999999997</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0.21162112881515399</v>
+      </c>
+      <c r="H9">
         <v>54.3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>53.485499999999995</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.28933527894295918</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>15.572000000000001</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>15.108343699999995</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>0.18133365128165757</v>
       </c>
     </row>
   </sheetData>

--- a/Versuch6/datasets/energieerhaltung.xlsx
+++ b/Versuch6/datasets/energieerhaltung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michele Calvanese\Uni\Grundpraktikum\Versuch6\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0762EABF-13DC-4341-B359-EE6DD0FF23EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FA1864B6-53C8-4F53-9CDC-E2A2C9A6E200}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22932" windowHeight="5616" xr2:uid="{8EE7B9F7-4AB2-4BEB-933B-588A75DEFC85}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>x1</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>a_err_avg</t>
+  </si>
+  <si>
+    <t>v1_err_r</t>
+  </si>
+  <si>
+    <t>v2_err_r</t>
+  </si>
+  <si>
+    <t>a_err_r</t>
   </si>
 </sst>
 </file>
@@ -424,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087693DB-CD84-4C88-B672-B7F182993AF2}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,34 +458,43 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80</v>
       </c>
@@ -493,48 +511,60 @@
         <v>46.5</v>
       </c>
       <c r="F2">
+        <f t="shared" ref="F2:F9" si="0">SQRT(0.1^2+(E2*3*10^(-5))^2)</f>
+        <v>0.1000097296516694</v>
+      </c>
+      <c r="G2">
         <f>E2*0.985</f>
         <v>45.802500000000002</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>SQRT(0.1^2+(E2*3*10^(-5))^2+(E2*0.005)^2)</f>
         <v>0.25309720667166602</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>60.9</v>
       </c>
-      <c r="I2">
-        <f>H2*0.985</f>
+      <c r="J2">
+        <f>SQRT(0.1^2+(I2*3*10^(-5))^2)</f>
+        <v>0.10001668825251114</v>
+      </c>
+      <c r="K2">
+        <f>I2*0.985</f>
         <v>59.986499999999999</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J9" si="0">SQRT(0.1^2+(H2*3*10^(-5))^2+(H2*0.005)^2)</f>
+      <c r="L2">
+        <f t="shared" ref="L2:L9" si="1">SQRT(0.1^2+(I2*3*10^(-5))^2+(I2*0.005)^2)</f>
         <v>0.32050520733523191</v>
       </c>
-      <c r="L2">
-        <f>0.5*(E2^2-H2^2)/(A2-B2)</f>
+      <c r="N2">
+        <f>0.5*(E2^2-I2^2)/(A2-B2)</f>
         <v>15.4656</v>
       </c>
-      <c r="M2">
-        <f>0.5*(F2^2-I2^2)/(A2-B2)</f>
+      <c r="O2">
+        <f>SQRT(4/(A2+B2)^2*((E2*F2)^2+(I2*J2)^2)+(E2^2+I2^2)^2/(A2+B2)^4*(C2^2+C2^2))</f>
+        <v>0.11911594765878741</v>
+      </c>
+      <c r="P2">
+        <f>0.5*(G2^2-K2^2)/(A2-B2)</f>
         <v>15.00511176</v>
       </c>
-      <c r="N2">
-        <f>SQRT(4/(A2+B2)^2*((E2*G2)^2+(H2*J2)^2)+(E2^2+H2^2)^2/(A2+B2)^4*(C2^2+C2^2))</f>
+      <c r="Q2">
+        <f>SQRT(4/(A2+B2)^2*((E2*H2)^2+(I2*L2)^2)+(E2^2+I2^2)^2/(A2+B2)^4*(C2^2+C2^2))</f>
         <v>0.23660377262272053</v>
       </c>
-      <c r="O2">
-        <f>AVERAGE(L2:L9)</f>
+      <c r="R2">
+        <f>AVERAGE(N2:N9)</f>
         <v>15.593887500000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2</f>
         <v>80</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:C9" si="1">B2</f>
+        <f t="shared" ref="B3:C9" si="2">B2</f>
         <v>130</v>
       </c>
       <c r="C3">
@@ -548,48 +578,60 @@
         <v>41.3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="2">E3*0.985</f>
+        <f t="shared" si="0"/>
+        <v>0.10000767531044806</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="3">E3*0.985</f>
         <v>40.680499999999995</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="3">SQRT(0.1^2+(E3*3*10^(-5))^2+(E3*0.005)^2)</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="4">SQRT(0.1^2+(E3*3*10^(-5))^2+(E3*0.005)^2)</f>
         <v>0.22944233506700543</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>57.1</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I9" si="4">H3*0.985</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="5">SQRT(0.1^2+(I3*3*10^(-5))^2)</f>
+        <v>0.10001467076884273</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="6">I3*0.985</f>
         <v>56.243499999999997</v>
       </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
+      <c r="L3">
+        <f t="shared" si="1"/>
         <v>0.30251146154980646</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L9" si="5">0.5*(E3^2-H3^2)/(A3-B3)</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N9" si="7">0.5*(E3^2-I3^2)/(A3-B3)</f>
         <v>15.547200000000005</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M9" si="6">0.5*(F3^2-I3^2)/(A3-B3)</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O9" si="8">SQRT(4/(A3+B3)^2*((E3*F3)^2+(I3*J3)^2)+(E3^2+I3^2)^2/(A3+B3)^4*(C3^2+C3^2))</f>
+        <v>0.10414416866608253</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P9" si="9">0.5*(G3^2-K3^2)/(A3-B3)</f>
         <v>15.084282120000003</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N9" si="7">SQRT(4/(A3+B3)^2*((E3*G3)^2+(H3*J3)^2)+(E3^2+H3^2)^2/(A3+B3)^4*(C3^2+C3^2))</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q9" si="10">SQRT(4/(A3+B3)^2*((E3*H3)^2+(I3*L3)^2)+(E3^2+I3^2)^2/(A3+B3)^4*(C3^2+C3^2))</f>
         <v>0.20383367243236047</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A9" si="8">A3</f>
+        <f t="shared" ref="A4:A9" si="11">A3</f>
         <v>80</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="D4">
@@ -599,51 +641,63 @@
         <v>35.200000000000003</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
-        <v>34.672000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.10000557552456764</v>
       </c>
       <c r="G4">
         <f t="shared" si="3"/>
+        <v>34.672000000000004</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
         <v>0.20242804928171396</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>52.9</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="4"/>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>0.10001259205220112</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
         <v>52.106499999999997</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
+      <c r="L4">
+        <f t="shared" si="1"/>
         <v>0.2827768883218712</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="5"/>
-        <v>15.593699999999997</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="6"/>
-        <v>15.129397582499996</v>
       </c>
       <c r="N4">
         <f t="shared" si="7"/>
+        <v>15.593699999999997</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="8"/>
+        <v>8.8621381359775764E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="9"/>
+        <v>15.129397582499996</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="10"/>
         <v>0.17056543329141477</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="D5">
@@ -653,52 +707,64 @@
         <v>27.9</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>27.481499999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.10000350278365254</v>
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
+        <v>27.481499999999997</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
         <v>0.17164192544072673</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>48.5</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="4"/>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>0.10001058456483494</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
         <v>47.772500000000001</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
+      <c r="L5">
+        <f t="shared" si="1"/>
         <v>0.26231348997907067</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="5"/>
-        <v>15.738400000000002</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>15.269789140000002</v>
       </c>
       <c r="N5">
         <f t="shared" si="7"/>
+        <v>15.738400000000002</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="8"/>
+        <v>7.3211294960656648E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="9"/>
+        <v>15.269789140000002</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="10"/>
         <v>0.13885436110471336</v>
       </c>
-      <c r="O5">
-        <f>AVERAGE(M2:M9)</f>
+      <c r="R5">
+        <f>AVERAGE(P2:P9)</f>
         <v>15.129579499687498</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="D6">
@@ -708,48 +774,60 @@
         <v>17.600000000000001</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>17.336000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.10000139391028508</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
+        <v>17.336000000000002</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
         <v>0.13320765287324901</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>43.4</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>0.10000847566081587</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
         <v>42.748999999999995</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
+      <c r="L6">
+        <f t="shared" si="1"/>
         <v>0.23893659243405979</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="5"/>
-        <v>15.738</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>15.269401049999994</v>
       </c>
       <c r="N6">
         <f t="shared" si="7"/>
+        <v>15.738</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="8"/>
+        <v>5.6802251607655049E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="9"/>
+        <v>15.269401049999994</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="10"/>
         <v>0.10718659608360366</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="D7">
@@ -759,51 +837,63 @@
         <v>44.8</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>44.128</v>
+        <f t="shared" si="0"/>
+        <v>0.10000903127218062</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
+        <v>44.128</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
         <v>0.24531165144770437</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>59.5</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>0.10001592985619842</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
         <v>58.607500000000002</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
+      <c r="L7">
+        <f t="shared" si="1"/>
         <v>0.31386212932591917</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="5"/>
-        <v>15.332100000000002</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>14.875586722500005</v>
       </c>
       <c r="N7">
         <f t="shared" si="7"/>
+        <v>15.332100000000002</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="8"/>
+        <v>0.11377315063401283</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="9"/>
+        <v>14.875586722500005</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="10"/>
         <v>0.22471967454455782</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="D8">
@@ -813,52 +903,64 @@
         <v>32.799999999999997</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>32.308</v>
+        <f t="shared" si="0"/>
+        <v>0.10000484116281572</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
+        <v>32.308</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
         <v>0.192085835646463</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>51.5</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>0.10001193441284896</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
         <v>50.727499999999999</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
+      <c r="L8">
+        <f t="shared" si="1"/>
         <v>0.27624017996120692</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="5"/>
-        <v>15.764100000000001</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>15.294723922499999</v>
       </c>
       <c r="N8">
         <f t="shared" si="7"/>
+        <v>15.764100000000001</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="8"/>
+        <v>8.3399186727832419E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="9"/>
+        <v>15.294723922499999</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="10"/>
         <v>0.15978446299519958</v>
       </c>
-      <c r="O8">
-        <f>AVERAGE(N2:N9)</f>
+      <c r="R8">
+        <f>AVERAGE(Q2:Q9)</f>
         <v>0.17786020304452849</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="D9">
@@ -868,34 +970,46 @@
         <v>37.299999999999997</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>36.740499999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.10000626060902389</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
+        <v>36.740499999999997</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
         <v>0.21162112881515399</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>54.3</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>0.10001326732489046</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
         <v>53.485499999999995</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
+      <c r="L9">
+        <f t="shared" si="1"/>
         <v>0.28933527894295918</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
-        <v>15.572000000000001</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="6"/>
-        <v>15.108343699999995</v>
       </c>
       <c r="N9">
         <f t="shared" si="7"/>
+        <v>15.572000000000001</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="8"/>
+        <v>9.3697463976451997E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="9"/>
+        <v>15.108343699999995</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="10"/>
         <v>0.18133365128165757</v>
       </c>
     </row>
